--- a/doc/Project planning Mugge.xlsx
+++ b/doc/Project planning Mugge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC26FE42-84C1-4BDA-A53A-35B978AEBBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D5CC2B-E518-41EC-B4BF-9D540DD0510F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-225" windowWidth="29040" windowHeight="15840" xr2:uid="{028A85D9-B4BB-4086-BEC0-78FFE01FFDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{028A85D9-B4BB-4086-BEC0-78FFE01FFDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="104">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -282,18 +282,12 @@
     <t>Finish the documentation</t>
   </si>
   <si>
-    <t>Unite all documentations</t>
-  </si>
-  <si>
     <t>Add Feature "Chords"</t>
   </si>
   <si>
     <t>Divide input data into successive frames and transforme it to frequency domain</t>
   </si>
   <si>
-    <t>Add Feature "Chroma Frequencies"</t>
-  </si>
-  <si>
     <t>Use Librosa to project the entire spectrum of the music data into 12 bins representing the 12 distinct semitones of the musical octave</t>
   </si>
   <si>
@@ -313,6 +307,42 @@
   </si>
   <si>
     <t>Test and train the system</t>
+  </si>
+  <si>
+    <t>0,5 day</t>
+  </si>
+  <si>
+    <t>1 days</t>
+  </si>
+  <si>
+    <t>Documentation of Feature "Zero Crossing Rate"</t>
+  </si>
+  <si>
+    <t>Documentation of Feature "Spectral centroid"</t>
+  </si>
+  <si>
+    <t>Documentation of Feature "Chords"</t>
+  </si>
+  <si>
+    <t>Unit all documentations</t>
+  </si>
+  <si>
+    <t>Documentation of Feature "MFCC"</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>Add Feature "Spectral centroid"</t>
+  </si>
+  <si>
+    <t>Understand the meaning of spectral centroid for audio</t>
+  </si>
+  <si>
+    <t>Extract the feature</t>
+  </si>
+  <si>
+    <t>normalize/scale the data</t>
   </si>
 </sst>
 </file>
@@ -697,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F444CBF-23A3-4528-9D64-112E4604E91E}">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,42 +1198,42 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
         <v>49</v>
-      </c>
-      <c r="E32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>53</v>
       </c>
       <c r="E33" t="s">
         <v>46</v>
@@ -1215,243 +1245,371 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3" t="s">
-        <v>88</v>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="6" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="6" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
         <v>49</v>
       </c>
-      <c r="E38" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
         <v>50</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I41" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
         <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
         <v>57</v>
       </c>
-      <c r="I44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="I50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>19</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C53" t="s">
         <v>20</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D53" t="s">
         <v>70</v>
       </c>
-      <c r="E46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
         <v>47</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>79</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D54" t="s">
         <v>80</v>
       </c>
-      <c r="E47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
         <v>81</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>82</v>
       </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" t="s">
         <v>47</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I56" t="s">
         <v>28</v>
       </c>
     </row>
